--- a/NLPartifacts/AllArticles.xlsx
+++ b/NLPartifacts/AllArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="184">
   <si>
     <t>SheetName</t>
   </si>
@@ -117,70 +117,469 @@
     <t>articlenum</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the moon </t>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arman Shariati PMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service delivery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a broad set </t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>discplines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system integration discplines </t>
+  </si>
+  <si>
+    <t>NNS</t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial Healthcare clients </t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>manages</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he </t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix team </t>
   </si>
   <si>
     <t>PRP</t>
   </si>
   <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Directorate</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interagency Program Office -LRB- IPO -RRB- Technical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The IPO </t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the future ,, To-be ,, SOA target state </t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Deloitte team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DML enterprise </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MHS IV&amp;V service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the MHS leadership </t>
+  </si>
+  <si>
+    <t>WDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executive team </t>
+  </si>
+  <si>
+    <t>practitioners</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Deloitte practitioners </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test and evaluation </t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a strategic code quality plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the organization to avoid these challenges in the future </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service </t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security requirements </t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>remedy</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the current performance </t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usability issues </t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some </t>
+  </si>
+  <si>
+    <t xml:space="preserve">re-factoring </t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>conducted</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processes and requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a market analysis </t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the current property management </t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>highlighted</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the development </t>
+  </si>
+  <si>
+    <t>Arman</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arman </t>
+  </si>
+  <si>
+    <t>Managed</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the relationship </t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the overall strategic plan </t>
+  </si>
+  <si>
+    <t>VBD</t>
+  </si>
+  <si>
+    <t>Defined</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the code quality violation criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the roadmap and portfolio analysis </t>
+  </si>
+  <si>
+    <t>Oversaw</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the staff </t>
+  </si>
+  <si>
+    <t>VBN</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the assessment </t>
+  </si>
+  <si>
+    <t>FindBugs</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arman Conducted static code analysis leveraging FindBugs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">metrics </t>
+  </si>
+  <si>
     <t>VB</t>
   </si>
   <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The man </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the room </t>
-  </si>
-  <si>
-    <t>VBD</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>purse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The person </t>
-  </si>
-  <si>
-    <t xml:space="preserve">their purse </t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other key open source technology </t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the cost model breakdown </t>
+  </si>
+  <si>
+    <t>outlined</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the cost </t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arman A key member </t>
+  </si>
+  <si>
+    <t xml:space="preserve">providers </t>
+  </si>
+  <si>
+    <t>VBP</t>
+  </si>
+  <si>
+    <t>Mentored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other Deloitte practitioners </t>
+  </si>
+  <si>
+    <t>taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service taxonomy </t>
+  </si>
+  <si>
+    <t>aligned</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common services </t>
+  </si>
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical support and recommendation </t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the SOA governance model </t>
+  </si>
+  <si>
+    <t>Assessed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the enterprise </t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the recommendations </t>
+  </si>
+  <si>
+    <t>practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best practices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a sophiscated ROI model </t>
+  </si>
+  <si>
+    <t>illsutrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sunk cost </t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the timeline </t>
   </si>
 </sst>
 </file>
@@ -399,23 +798,511 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -453,15 +1340,381 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35"/>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36"/>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54"/>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56"/>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58"/>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59"/>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60"/>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61"/>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64"/>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -495,23 +1748,511 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
         <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -546,23 +2287,511 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -597,23 +2826,511 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
         <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -648,23 +3365,511 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -699,23 +3904,511 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -750,23 +4443,511 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -806,18 +4987,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -857,18 +5526,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -908,18 +6065,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -959,18 +6604,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
         <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1010,18 +7143,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1061,18 +7682,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1112,18 +8221,506 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1158,23 +8755,511 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/NLPartifacts/AllArticles.xlsx
+++ b/NLPartifacts/AllArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="57">
   <si>
     <t>SheetName</t>
   </si>
@@ -117,133 +117,88 @@
     <t>articlenum</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The company ,s stock </t>
-  </si>
-  <si>
-    <t xml:space="preserve">around $ 82 </t>
+    <t>System</t>
+  </si>
+  <si>
+    <t>provides</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tactical Medical Coordination System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapid casualty identification </t>
+  </si>
+  <si>
+    <t>NNP</t>
   </si>
   <si>
     <t>NN</t>
   </si>
   <si>
-    <t>VBG</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>billionaire</t>
-  </si>
-  <si>
-    <t>founded</t>
-  </si>
-  <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the billionaire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PayPal </t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>Musk</t>
-  </si>
-  <si>
-    <t>built</t>
-  </si>
-  <si>
-    <t>SolarCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolarCity </t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>systems</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar energy systems </t>
-  </si>
-  <si>
-    <t>PRP</t>
-  </si>
-  <si>
-    <t>VB</t>
+    <t>enables</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visibility </t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>maintains</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an electronic treatment record </t>
+  </si>
+  <si>
+    <t>utilizes</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-physical-contact data transmission </t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage media </t>
   </si>
   <si>
     <t>NNS</t>
   </si>
   <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolarCity ,s third quarter 2013 </t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Anyone</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anyone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a bet </t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the federal government </t>
-  </si>
-  <si>
-    <t>NOT turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">these subsidies . @ </t>
+    <t>uplinks</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casualty information </t>
+  </si>
+  <si>
+    <t>VBZ</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the current version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">information </t>
   </si>
 </sst>
 </file>
@@ -462,55 +417,55 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -548,37 +503,37 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C8"/>
     </row>
@@ -619,7 +574,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -627,7 +582,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -635,7 +590,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -643,7 +598,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -651,7 +606,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -659,7 +614,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -702,7 +657,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -710,7 +665,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -718,7 +673,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -726,7 +681,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -734,7 +689,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -742,7 +697,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -785,7 +740,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -793,7 +748,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -801,7 +756,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -809,7 +764,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -817,7 +772,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -825,7 +780,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -868,7 +823,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -876,7 +831,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -884,7 +839,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -892,7 +847,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -900,7 +855,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -908,7 +863,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -951,7 +906,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -959,7 +914,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -967,7 +922,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -975,7 +930,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -983,7 +938,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -991,7 +946,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1034,7 +989,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1042,7 +997,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -1050,7 +1005,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1058,7 +1013,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1066,7 +1021,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1074,7 +1029,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1117,50 +1072,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1200,50 +1155,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1283,50 +1238,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1366,50 +1321,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1449,50 +1404,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1532,50 +1487,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1570,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1623,7 +1578,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1631,23 +1586,23 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1655,10 +1610,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1698,50 +1653,50 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
